--- a/gameLists.xlsx
+++ b/gameLists.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$84</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="368">
   <si>
     <t>gameId</t>
   </si>
@@ -69,910 +69,1063 @@
     <t>code</t>
   </si>
   <si>
-    <t>14094</t>
-  </si>
-  <si>
-    <t>牛運寶藏</t>
+    <t>128</t>
+  </si>
+  <si>
+    <t>超級王牌2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>1002270000</t>
+  </si>
+  <si>
+    <t>RSG</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>RSG_128</t>
+  </si>
+  <si>
+    <t>1, 2, 4</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>迦羅寶石4</t>
+  </si>
+  <si>
+    <t>RSG_125</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>麻將發了</t>
+  </si>
+  <si>
+    <t>1002270082</t>
+  </si>
+  <si>
+    <t>RSG_117</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>雷神之錘</t>
+  </si>
+  <si>
+    <t>1002270078</t>
+  </si>
+  <si>
+    <t>RSG_112</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>聚寶財神</t>
+  </si>
+  <si>
+    <t>1002270083</t>
+  </si>
+  <si>
+    <t>RSG_114</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>五龍爭霸</t>
+  </si>
+  <si>
+    <t>1002270019</t>
+  </si>
+  <si>
+    <t>RSG_19</t>
+  </si>
+  <si>
+    <t>法老王</t>
+  </si>
+  <si>
+    <t>1002270006</t>
+  </si>
+  <si>
+    <t>RSG_6</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>JDB</t>
-  </si>
-  <si>
-    <t>1002300069</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>Game_JDB_14094</t>
-  </si>
-  <si>
-    <t>1, 2, 4</t>
+    <t>82</t>
+  </si>
+  <si>
+    <t>法老王 II</t>
+  </si>
+  <si>
+    <t>1002270073</t>
+  </si>
+  <si>
+    <t>RSG_82</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>戰神呂布</t>
+  </si>
+  <si>
+    <t>1002270085</t>
+  </si>
+  <si>
+    <t>RSG_121</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>羅馬競技場</t>
+  </si>
+  <si>
+    <t>1002270063</t>
+  </si>
+  <si>
+    <t>RSG_100</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>有請財神</t>
+  </si>
+  <si>
+    <t>1002270087</t>
+  </si>
+  <si>
+    <t>RSG_120</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>黃金摔角手</t>
+  </si>
+  <si>
+    <t>1002270086</t>
+  </si>
+  <si>
+    <t>RSG_75</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>跳跳獅</t>
+  </si>
+  <si>
+    <t>1002270049</t>
+  </si>
+  <si>
+    <t>RSG_50</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>行運一條龍</t>
+  </si>
+  <si>
+    <t>1002270028</t>
+  </si>
+  <si>
+    <t>RSG_28</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>開心農場</t>
+  </si>
+  <si>
+    <t>1002270079</t>
+  </si>
+  <si>
+    <t>RSG_111</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>幸運水果</t>
+  </si>
+  <si>
+    <t>1002270008</t>
+  </si>
+  <si>
+    <t>RSG_8</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>皇家777</t>
+  </si>
+  <si>
+    <t>1002270003</t>
+  </si>
+  <si>
+    <t>RSG_3</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>龍王2</t>
+  </si>
+  <si>
+    <t>1002270074</t>
+  </si>
+  <si>
+    <t>RSG_81</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>七十二變</t>
+  </si>
+  <si>
+    <t>1002270021</t>
+  </si>
+  <si>
+    <t>RSG_21</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>龍王</t>
+  </si>
+  <si>
+    <t>1002270033</t>
+  </si>
+  <si>
+    <t>RSG_30</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+  </si>
+  <si>
+    <t>1002270007</t>
+  </si>
+  <si>
+    <t>RSG_7</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>美狄亞</t>
+  </si>
+  <si>
+    <t>1002270069</t>
+  </si>
+  <si>
+    <t>RSG_52</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>福娃發發</t>
+  </si>
+  <si>
+    <t>1002270043</t>
+  </si>
+  <si>
+    <t>RSG_40</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>提金派對</t>
+  </si>
+  <si>
+    <t>1002270030</t>
+  </si>
+  <si>
+    <t>RSG_31</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>秘林熊貓</t>
+  </si>
+  <si>
+    <t>1002270059</t>
+  </si>
+  <si>
+    <t>RSG_59</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>泰有錢</t>
+  </si>
+  <si>
+    <t>1002270002</t>
+  </si>
+  <si>
+    <t>RSG_1</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>皇家7777</t>
+  </si>
+  <si>
+    <t>1002270075</t>
+  </si>
+  <si>
+    <t>RSG_78</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>荒野水牛</t>
+  </si>
+  <si>
+    <t>1002270024</t>
+  </si>
+  <si>
+    <t>RSG_24</t>
+  </si>
+  <si>
+    <t>瘋狂博士</t>
+  </si>
+  <si>
+    <t>1002270017</t>
+  </si>
+  <si>
+    <t>RSG_17</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>龍行天下</t>
+  </si>
+  <si>
+    <t>1002270062</t>
+  </si>
+  <si>
+    <t>RSG_90</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
+  </si>
+  <si>
+    <t>1002270070</t>
+  </si>
+  <si>
+    <t>RSG_51</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>能量外星人</t>
+  </si>
+  <si>
+    <t>1002270061</t>
+  </si>
+  <si>
+    <t>RSG_2001</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>竹林熊貓</t>
+  </si>
+  <si>
+    <t>1002270025</t>
+  </si>
+  <si>
+    <t>RSG_25</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>秦皇傳說</t>
+  </si>
+  <si>
+    <t>1002270081</t>
+  </si>
+  <si>
+    <t>RSG_113</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>鼠來寶</t>
+  </si>
+  <si>
+    <t>1002270076</t>
+  </si>
+  <si>
+    <t>RSG_70</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>1002270040</t>
+  </si>
+  <si>
+    <t>RSG_34</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>財神到</t>
+  </si>
+  <si>
+    <t>1002270027</t>
+  </si>
+  <si>
+    <t>RSG_27</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>武媚娘</t>
+  </si>
+  <si>
+    <t>1002270048</t>
+  </si>
+  <si>
+    <t>RSG_39</t>
+  </si>
+  <si>
+    <t>大力水手</t>
+  </si>
+  <si>
+    <t>1002270016</t>
+  </si>
+  <si>
+    <t>RSG_16</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>慾望城市</t>
+  </si>
+  <si>
+    <t>1002270004</t>
+  </si>
+  <si>
+    <t>RSG_4</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>嗨起來</t>
+  </si>
+  <si>
+    <t>1002270057</t>
+  </si>
+  <si>
+    <t>RSG_55</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>烈焰轉輪</t>
+  </si>
+  <si>
+    <t>1002270032</t>
+  </si>
+  <si>
+    <t>RSG_15</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>金鷄報喜</t>
+  </si>
+  <si>
+    <t>1002270005</t>
+  </si>
+  <si>
+    <t>RSG_5</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>動物叢林</t>
+  </si>
+  <si>
+    <t>1002270010</t>
+  </si>
+  <si>
+    <t>RSG_10</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>14088</t>
-  </si>
-  <si>
-    <t>魔幻王牌</t>
-  </si>
-  <si>
-    <t>1002300066</t>
-  </si>
-  <si>
-    <t>Game_JDB_14088</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>14036</t>
-  </si>
-  <si>
-    <t>超級牛B</t>
-  </si>
-  <si>
-    <t>1002300080</t>
-  </si>
-  <si>
-    <t>Game_JDB_14036</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>14042</t>
-  </si>
-  <si>
-    <t>聚寶盆</t>
-  </si>
-  <si>
-    <t>1002300126</t>
-  </si>
-  <si>
-    <t>Game_JDB_14042</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>14045</t>
-  </si>
-  <si>
-    <t>超級牛B 豪華版</t>
-  </si>
-  <si>
-    <t>1002300099</t>
-  </si>
-  <si>
-    <t>Game_JDB_14045</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>14091</t>
-  </si>
-  <si>
-    <t>小豬銀行</t>
-  </si>
-  <si>
-    <t>1002300079</t>
-  </si>
-  <si>
-    <t>Game_JDB_14091</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>14085</t>
-  </si>
-  <si>
-    <t>星際水果霸</t>
-  </si>
-  <si>
-    <t>1002300124</t>
-  </si>
-  <si>
-    <t>Game_JDB_14085</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8011</t>
-  </si>
-  <si>
-    <t>瘋狂金魚</t>
-  </si>
-  <si>
-    <t>1002300077</t>
-  </si>
-  <si>
-    <t>Game_JDB_8011</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>14041</t>
-  </si>
-  <si>
-    <t>雷神之鎚</t>
-  </si>
-  <si>
-    <t>1002300108</t>
-  </si>
-  <si>
-    <t>Game_JDB_14041</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>14063</t>
-  </si>
-  <si>
-    <t>大三元</t>
-  </si>
-  <si>
-    <t>1002300092</t>
-  </si>
-  <si>
-    <t>Game_JDB_14063</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>14055</t>
-  </si>
-  <si>
-    <t>金剛</t>
-  </si>
-  <si>
-    <t>1002300078</t>
-  </si>
-  <si>
-    <t>Game_JDB_14055</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8020</t>
-  </si>
-  <si>
-    <t>芝麻開門</t>
-  </si>
-  <si>
-    <t>1002300033</t>
-  </si>
-  <si>
-    <t>Game_JDB_8020</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>8048</t>
-  </si>
-  <si>
-    <t>芝麻開門2</t>
-  </si>
-  <si>
-    <t>Game_JDB_8048</t>
-  </si>
-  <si>
-    <t>8013</t>
-  </si>
-  <si>
-    <t>泰好玩</t>
-  </si>
-  <si>
-    <t>Game_JDB_8013</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>8003</t>
-  </si>
-  <si>
-    <t>變臉</t>
-  </si>
-  <si>
-    <t>1002300127</t>
-  </si>
-  <si>
-    <t>Game_JDB_8003</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>8006</t>
-  </si>
-  <si>
-    <t>台灣黑熊</t>
-  </si>
-  <si>
-    <t>1002300117</t>
-  </si>
-  <si>
-    <t>Game_JDB_8006</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>14035</t>
-  </si>
-  <si>
-    <t>龍舞</t>
-  </si>
-  <si>
-    <t>1002300106</t>
-  </si>
-  <si>
-    <t>Game_JDB_14035</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>14065</t>
-  </si>
-  <si>
-    <t>花開富貴</t>
-  </si>
-  <si>
-    <t>1002300014</t>
-  </si>
-  <si>
-    <t>Game_JDB_14065</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>14053</t>
-  </si>
-  <si>
-    <t>浪花2</t>
-  </si>
-  <si>
-    <t>1002300094</t>
-  </si>
-  <si>
-    <t>Game_JDB_14053</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>8047</t>
-  </si>
-  <si>
-    <t>變臉2</t>
-  </si>
-  <si>
-    <t>1002300003</t>
-  </si>
-  <si>
-    <t>Game_JDB_8047</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>14010</t>
-  </si>
-  <si>
-    <t>飛龍在天</t>
-  </si>
-  <si>
-    <t>1002300006</t>
-  </si>
-  <si>
-    <t>Game_JDB_14010</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>14084</t>
-  </si>
-  <si>
-    <t>天降財神</t>
-  </si>
-  <si>
-    <t>1002300065</t>
-  </si>
-  <si>
-    <t>Game_JDB_14084</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>14033</t>
-  </si>
-  <si>
-    <t>飛鳥派對</t>
-  </si>
-  <si>
-    <t>1002300119</t>
-  </si>
-  <si>
-    <t>Game_JDB_14033</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>14079</t>
-  </si>
-  <si>
-    <t>富豪哥2</t>
-  </si>
-  <si>
-    <t>1002300104</t>
-  </si>
-  <si>
-    <t>Game_JDB_14079</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>14086</t>
-  </si>
-  <si>
-    <t>芝麻開門 Mega</t>
-  </si>
-  <si>
-    <t>1002300032</t>
-  </si>
-  <si>
-    <t>Game_JDB_14086</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>14077</t>
-  </si>
-  <si>
-    <t>王牌</t>
-  </si>
-  <si>
-    <t>1002300045</t>
-  </si>
-  <si>
-    <t>Game_JDB_14077</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>8050</t>
-  </si>
-  <si>
-    <t>馬上有錢</t>
-  </si>
-  <si>
-    <t>Game_JDB_8050</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>14016</t>
-  </si>
-  <si>
-    <t>王牌特工</t>
-  </si>
-  <si>
-    <t>1002300063</t>
-  </si>
-  <si>
-    <t>Game_JDB_14016</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>8015</t>
-  </si>
-  <si>
-    <t>月光秘寶</t>
-  </si>
-  <si>
-    <t>Game_JDB_8015</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>8051</t>
-  </si>
-  <si>
-    <t>喜洋羊</t>
-  </si>
-  <si>
-    <t>Game_JDB_8051</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>8012</t>
-  </si>
-  <si>
-    <t>幸運熊貓</t>
-  </si>
-  <si>
-    <t>Game_JDB_8012</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>8009</t>
-  </si>
-  <si>
-    <t>拳王</t>
-  </si>
-  <si>
-    <t>1002300035</t>
-  </si>
-  <si>
-    <t>Game_JDB_8009</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>14051</t>
-  </si>
-  <si>
-    <t>鯉躍龍門</t>
-  </si>
-  <si>
-    <t>1002300050</t>
-  </si>
-  <si>
-    <t>Game_JDB_14051</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>15003</t>
-  </si>
-  <si>
-    <t>骰寶無雙</t>
-  </si>
-  <si>
-    <t>1002300009</t>
-  </si>
-  <si>
-    <t>Game_JDB_15003</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>14075</t>
-  </si>
-  <si>
-    <t>幸運招財貓</t>
-  </si>
-  <si>
-    <t>1002300036</t>
-  </si>
-  <si>
-    <t>Game_JDB_14075</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>14080</t>
-  </si>
-  <si>
-    <t>元素連結火</t>
-  </si>
-  <si>
-    <t>1002300093</t>
-  </si>
-  <si>
-    <t>Game_JDB_14080</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>8017</t>
-  </si>
-  <si>
-    <t>過新年</t>
-  </si>
-  <si>
-    <t>1002300091</t>
-  </si>
-  <si>
-    <t>Game_JDB_8017</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>8049</t>
-  </si>
-  <si>
-    <t>唐伯虎點秋香2</t>
-  </si>
-  <si>
-    <t>1002300102</t>
-  </si>
-  <si>
-    <t>Game_JDB_8049</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>8001</t>
-  </si>
-  <si>
-    <t>幸運龍</t>
-  </si>
-  <si>
-    <t>1002300090</t>
-  </si>
-  <si>
-    <t>Game_JDB_8001</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>8033</t>
-  </si>
-  <si>
-    <t>金錢豹</t>
-  </si>
-  <si>
-    <t>Game_JDB_8033</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>8032</t>
-  </si>
-  <si>
-    <t>暴發虎</t>
-  </si>
-  <si>
-    <t>Game_JDB_8032</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>9001</t>
-  </si>
-  <si>
-    <t>小瑪莉</t>
-  </si>
-  <si>
-    <t>1002300011</t>
-  </si>
-  <si>
-    <t>Game_JDB_9001</t>
-  </si>
-  <si>
-    <t>1, 6</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>9002</t>
-  </si>
-  <si>
-    <t>新年快樂</t>
-  </si>
-  <si>
-    <t>1002300034</t>
-  </si>
-  <si>
-    <t>Game_JDB_9002</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>9003</t>
-  </si>
-  <si>
-    <t>飛禽走獸</t>
-  </si>
-  <si>
-    <t>1002300001</t>
-  </si>
-  <si>
-    <t>Game_JDB_9003</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>9004</t>
-  </si>
-  <si>
-    <t>啤酒大亨</t>
-  </si>
-  <si>
-    <t>1002300096</t>
-  </si>
-  <si>
-    <t>Game_JDB_9004</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>9006</t>
-  </si>
-  <si>
-    <t>花果山傳奇</t>
-  </si>
-  <si>
-    <t>1002300095</t>
-  </si>
-  <si>
-    <t>Game_JDB_9006</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>9007</t>
-  </si>
-  <si>
-    <t>超激發水果盤</t>
-  </si>
-  <si>
-    <t>1002300081</t>
-  </si>
-  <si>
-    <t>Game_JDB_9007</t>
+    <t>魔法石</t>
+  </si>
+  <si>
+    <t>1002270001</t>
+  </si>
+  <si>
+    <t>RSG_2</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>9008</t>
-  </si>
-  <si>
-    <t>瘋狂金剛</t>
-  </si>
-  <si>
-    <t>1002300082</t>
-  </si>
-  <si>
-    <t>Game_JDB_9008</t>
+    <t>119</t>
+  </si>
+  <si>
+    <t>魔龍傳奇</t>
+  </si>
+  <si>
+    <t>1002270084</t>
+  </si>
+  <si>
+    <t>RSG_119</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
-    <t>12003</t>
-  </si>
-  <si>
-    <t>快樂六星彩</t>
-  </si>
-  <si>
-    <t>1002300086</t>
-  </si>
-  <si>
-    <t>Game_JDB_12003</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>9009</t>
-  </si>
-  <si>
-    <t>發財足球王</t>
-  </si>
-  <si>
-    <t>1002300083</t>
-  </si>
-  <si>
-    <t>Game_JDB_9009</t>
+    <t>七起來</t>
+  </si>
+  <si>
+    <t>1002270050</t>
+  </si>
+  <si>
+    <t>RSG_44</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>12001</t>
-  </si>
-  <si>
-    <t>財神賓果彩</t>
-  </si>
-  <si>
-    <t>1002300084</t>
-  </si>
-  <si>
-    <t>Game_JDB_12001</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>12002</t>
-  </si>
-  <si>
-    <t>金雞福彩</t>
-  </si>
-  <si>
-    <t>1002300085</t>
-  </si>
-  <si>
-    <t>Game_JDB_12002</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>7003</t>
-  </si>
-  <si>
-    <t>財神捕魚</t>
-  </si>
-  <si>
-    <t>1002300110</t>
-  </si>
-  <si>
-    <t>Game_JDB_7003</t>
+    <t>泰山</t>
+  </si>
+  <si>
+    <t>1002270044</t>
+  </si>
+  <si>
+    <t>RSG_41</t>
+  </si>
+  <si>
+    <t>野蠻遊戲</t>
+  </si>
+  <si>
+    <t>1002270012</t>
+  </si>
+  <si>
+    <t>RSG_12</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>西部牛仔</t>
+  </si>
+  <si>
+    <t>1002270058</t>
+  </si>
+  <si>
+    <t>RSG_56</t>
+  </si>
+  <si>
+    <t>泰好運</t>
+  </si>
+  <si>
+    <t>1002270026</t>
+  </si>
+  <si>
+    <t>RSG_26</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>農場夜驚魂</t>
+  </si>
+  <si>
+    <t>1002270037</t>
+  </si>
+  <si>
+    <t>RSG_38</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>金豬爆吉</t>
+  </si>
+  <si>
+    <t>1002270046</t>
+  </si>
+  <si>
+    <t>RSG_43</t>
+  </si>
+  <si>
+    <t>幸運拉霸</t>
+  </si>
+  <si>
+    <t>1002270034</t>
+  </si>
+  <si>
+    <t>RSG_33</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>太極</t>
+  </si>
+  <si>
+    <t>1002270065</t>
+  </si>
+  <si>
+    <t>RSG_65</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>永不停止</t>
+  </si>
+  <si>
+    <t>1002270018</t>
+  </si>
+  <si>
+    <t>RSG_18</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>甜蜜糖果</t>
+  </si>
+  <si>
+    <t>1002270014</t>
+  </si>
+  <si>
+    <t>RSG_14</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>黃金之書</t>
+  </si>
+  <si>
+    <t>1002270067</t>
+  </si>
+  <si>
+    <t>RSG_61</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>霓虹圓</t>
+  </si>
+  <si>
+    <t>1002270055</t>
+  </si>
+  <si>
+    <t>RSG_53</t>
+  </si>
+  <si>
+    <t>家犬先生</t>
+  </si>
+  <si>
+    <t>1002270042</t>
+  </si>
+  <si>
+    <t>RSG_36</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>虎克船長</t>
+  </si>
+  <si>
+    <t>1002270011</t>
+  </si>
+  <si>
+    <t>RSG_11</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>金色幸運草</t>
+  </si>
+  <si>
+    <t>1002270071</t>
+  </si>
+  <si>
+    <t>RSG_66</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>海神</t>
+  </si>
+  <si>
+    <t>1002270054</t>
+  </si>
+  <si>
+    <t>RSG_49</t>
+  </si>
+  <si>
+    <t>墨西哥辣椒</t>
+  </si>
+  <si>
+    <t>1002270045</t>
+  </si>
+  <si>
+    <t>RSG_42</t>
+  </si>
+  <si>
+    <t>迪斯可之夜</t>
+  </si>
+  <si>
+    <t>1002270036</t>
+  </si>
+  <si>
+    <t>RSG_37</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>HUSA</t>
+  </si>
+  <si>
+    <t>1002270029</t>
+  </si>
+  <si>
+    <t>RSG_29</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>潑水節</t>
+  </si>
+  <si>
+    <t>1002270080</t>
+  </si>
+  <si>
+    <t>RSG_72</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>女忍者</t>
+  </si>
+  <si>
+    <t>1002270052</t>
+  </si>
+  <si>
+    <t>RSG_45</t>
+  </si>
+  <si>
+    <t>巫師商店黃金版</t>
+  </si>
+  <si>
+    <t>1002270077</t>
+  </si>
+  <si>
+    <t>RSG_68</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>忍者</t>
+  </si>
+  <si>
+    <t>1002270053</t>
+  </si>
+  <si>
+    <t>RSG_46</t>
+  </si>
+  <si>
+    <t>巫師商店</t>
+  </si>
+  <si>
+    <t>1002270041</t>
+  </si>
+  <si>
+    <t>RSG_35</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>礦工哥布林</t>
+  </si>
+  <si>
+    <t>1002270031</t>
+  </si>
+  <si>
+    <t>RSG_32</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>人魚傳說</t>
+  </si>
+  <si>
+    <t>1002270023</t>
+  </si>
+  <si>
+    <t>RSG_23</t>
+  </si>
+  <si>
+    <t>賣火柴的小女孩</t>
+  </si>
+  <si>
+    <t>1002270066</t>
+  </si>
+  <si>
+    <t>RSG_58</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>精靈射手</t>
+  </si>
+  <si>
+    <t>1002270068</t>
+  </si>
+  <si>
+    <t>RSG_73</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>果凍27</t>
+  </si>
+  <si>
+    <t>1002270051</t>
+  </si>
+  <si>
+    <t>RSG_47</t>
+  </si>
+  <si>
+    <t>嘻哈金剛</t>
+  </si>
+  <si>
+    <t>1002270072</t>
+  </si>
+  <si>
+    <t>RSG_60</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>小熊王國</t>
+  </si>
+  <si>
+    <t>1002270064</t>
+  </si>
+  <si>
+    <t>RSG_76</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>暴怒棕熊</t>
+  </si>
+  <si>
+    <t>1002270056</t>
+  </si>
+  <si>
+    <t>RSG_48</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>八爪天下海霸王</t>
+  </si>
+  <si>
+    <t>1002270047</t>
+  </si>
+  <si>
+    <t>RSG_3001</t>
   </si>
   <si>
     <t>1, 3, 4</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>7004</t>
-  </si>
-  <si>
-    <t>五龍捕魚</t>
-  </si>
-  <si>
-    <t>1002300122</t>
-  </si>
-  <si>
-    <t>Game_JDB_7004</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>7001</t>
-  </si>
-  <si>
-    <t>龍王捕魚</t>
-  </si>
-  <si>
-    <t>1002300088</t>
-  </si>
-  <si>
-    <t>Game_JDB_7001</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>7005</t>
-  </si>
-  <si>
-    <t>捕魚一路發</t>
-  </si>
-  <si>
-    <t>1002300087</t>
-  </si>
-  <si>
-    <t>Game_JDB_7005</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>7006</t>
-  </si>
-  <si>
-    <t>獵龍高手</t>
-  </si>
-  <si>
-    <t>Game_JDB_7006</t>
-  </si>
-  <si>
-    <t>1, 3</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>7002</t>
-  </si>
-  <si>
-    <t>龍王捕魚2</t>
-  </si>
-  <si>
-    <t>Game_JDB_7002</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>7007</t>
-  </si>
-  <si>
-    <t>捕魚迪斯可</t>
-  </si>
-  <si>
-    <t>Game_JDB_7007</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>7008</t>
-  </si>
-  <si>
-    <t>捕魚炸機</t>
-  </si>
-  <si>
-    <t>Game_JDB_7008</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>7009</t>
-  </si>
-  <si>
-    <t>海皇爭霸 龍鳳傳說</t>
-  </si>
-  <si>
-    <t>Game_JDB_7009</t>
-  </si>
-  <si>
-    <t>54</t>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>福娃捕魚</t>
+  </si>
+  <si>
+    <t>1002270060</t>
+  </si>
+  <si>
+    <t>RSG_3002</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>狗來富</t>
+  </si>
+  <si>
+    <t>RSG_122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>侏羅紀寶藏</t>
+  </si>
+  <si>
+    <t>RSG_123</t>
   </si>
 </sst>
 </file>
@@ -1356,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1413,10 +1566,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>363</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1428,42 +1581,42 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>362</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>364</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1475,31 +1628,31 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>365</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>367</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -1507,10 +1660,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1522,42 +1675,42 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1569,42 +1722,42 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1616,42 +1769,42 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1663,42 +1816,42 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1710,42 +1863,42 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1757,42 +1910,42 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1804,42 +1957,42 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -1851,42 +2004,42 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1898,42 +2051,42 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1945,42 +2098,42 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1992,42 +2145,42 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -2039,42 +2192,42 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -2086,42 +2239,42 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -2133,42 +2286,42 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -2180,42 +2333,42 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -2227,42 +2380,42 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -2274,42 +2427,42 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L20" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="M20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -2321,42 +2474,42 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L21" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -2368,42 +2521,42 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L22" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="M22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -2415,42 +2568,42 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L23" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -2462,42 +2615,42 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L24" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="M24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -2509,42 +2662,42 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L25" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -2556,42 +2709,42 @@
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="M26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -2603,42 +2756,42 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L27" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -2650,42 +2803,42 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="M28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -2697,42 +2850,42 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L29" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="M29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -2744,42 +2897,42 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L30" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -2791,42 +2944,42 @@
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L31" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="M31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -2838,42 +2991,42 @@
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="K32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L32" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="M32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -2885,42 +3038,42 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L33" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="M33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -2932,42 +3085,42 @@
         <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="K34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L34" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="M34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O34" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -2979,42 +3132,42 @@
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H35" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="K35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L35" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="M35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O35" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -3026,42 +3179,42 @@
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L36" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="M36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O36" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -3073,42 +3226,42 @@
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="K37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L37" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="M37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -3120,42 +3273,42 @@
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H38" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="K38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L38" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="M38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O38" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -3167,42 +3320,42 @@
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H39" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="K39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L39" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="M39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O39" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -3214,42 +3367,42 @@
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H40" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="K40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L40" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="M40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O40" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -3261,42 +3414,42 @@
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="K41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L41" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="M41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O41" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -3308,42 +3461,42 @@
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H42" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="K42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L42" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="M42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O42" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -3355,42 +3508,42 @@
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="K43" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="L43" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="M43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N43" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O43" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -3402,42 +3555,42 @@
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="I44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="K44" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="L44" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="M44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N44" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O44" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
@@ -3449,42 +3602,42 @@
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H45" t="s">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="I45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="K45" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="L45" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="M45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N45" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O45" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -3496,42 +3649,42 @@
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H46" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="I46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="K46" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="L46" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="M46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N46" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O46" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -3543,42 +3696,42 @@
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H47" t="s">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="K47" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="L47" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="M47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N47" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O47" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -3590,42 +3743,42 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H48" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="K48" t="s">
+        <v>82</v>
+      </c>
+      <c r="L48" t="s">
         <v>223</v>
       </c>
-      <c r="L48" t="s">
-        <v>249</v>
-      </c>
       <c r="M48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N48" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O48" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -3637,42 +3790,42 @@
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H49" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="K49" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="L49" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="M49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N49" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O49" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="B50" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -3684,42 +3837,42 @@
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H50" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="K50" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="L50" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="M50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N50" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O50" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="B51" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -3731,42 +3884,42 @@
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H51" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="K51" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="L51" t="s">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="M51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N51" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="O51" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -3778,42 +3931,42 @@
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H52" t="s">
-        <v>270</v>
+        <v>67</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="K52" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="L52" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="M52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N52" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="O52" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B53" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -3825,42 +3978,42 @@
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H53" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="K53" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="L53" t="s">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="M53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N53" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="O53" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -3872,31 +4025,31 @@
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H54" t="s">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="K54" t="s">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="L54" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="M54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N54" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="O54" t="s">
         <v>26</v>
@@ -3904,10 +4057,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>313</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -3919,31 +4072,31 @@
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>313</v>
+        <v>186</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="K55" t="s">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="L55" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="M55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N55" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="O55" t="s">
         <v>26</v>
@@ -3951,10 +4104,10 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
@@ -3966,42 +4119,42 @@
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H56" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="K56" t="s">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="L56" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="M56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N56" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="O56" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>281</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -4013,42 +4166,42 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H57" t="s">
-        <v>281</v>
+        <v>163</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="K57" t="s">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="L57" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="M57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N57" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="O57" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="B58" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -4060,42 +4213,42 @@
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="K58" t="s">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="L58" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="M58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N58" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="O58" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -4107,42 +4260,42 @@
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H59" t="s">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="K59" t="s">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="L59" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="M59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N59" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="O59" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -4154,42 +4307,42 @@
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H60" t="s">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="K60" t="s">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="L60" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="M60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N60" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="O60" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="B61" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -4201,31 +4354,31 @@
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="K61" t="s">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="L61" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="M61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N61" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="O61" t="s">
         <v>26</v>
@@ -4233,55 +4386,1089 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" t="s">
+        <v>274</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>275</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s">
+        <v>246</v>
+      </c>
+      <c r="I62" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>276</v>
+      </c>
+      <c r="K62" t="s">
+        <v>82</v>
+      </c>
+      <c r="L62" t="s">
+        <v>269</v>
+      </c>
+      <c r="M62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" t="s">
+        <v>277</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>278</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s">
+        <v>177</v>
+      </c>
+      <c r="I63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" t="s">
+        <v>279</v>
+      </c>
+      <c r="K63" t="s">
+        <v>82</v>
+      </c>
+      <c r="L63" t="s">
+        <v>280</v>
+      </c>
+      <c r="M63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>281</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>282</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" t="s">
+        <v>283</v>
+      </c>
+      <c r="K64" t="s">
+        <v>82</v>
+      </c>
+      <c r="L64" t="s">
+        <v>284</v>
+      </c>
+      <c r="M64" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B65" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>287</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s">
+        <v>285</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>288</v>
+      </c>
+      <c r="K65" t="s">
+        <v>82</v>
+      </c>
+      <c r="L65" t="s">
+        <v>289</v>
+      </c>
+      <c r="M65" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65" t="s">
+        <v>26</v>
+      </c>
+      <c r="O65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" t="s">
+        <v>290</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>291</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s">
+        <v>232</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>292</v>
+      </c>
+      <c r="K66" t="s">
+        <v>82</v>
+      </c>
+      <c r="L66" t="s">
+        <v>257</v>
+      </c>
+      <c r="M66" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" t="s">
+        <v>26</v>
+      </c>
+      <c r="O66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>294</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" t="s">
+        <v>201</v>
+      </c>
+      <c r="I67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
+        <v>295</v>
+      </c>
+      <c r="K67" t="s">
+        <v>82</v>
+      </c>
+      <c r="L67" t="s">
+        <v>285</v>
+      </c>
+      <c r="M67" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" t="s">
+        <v>296</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>297</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" t="s">
+        <v>182</v>
+      </c>
+      <c r="I68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>298</v>
+      </c>
+      <c r="K68" t="s">
+        <v>82</v>
+      </c>
+      <c r="L68" t="s">
+        <v>299</v>
+      </c>
+      <c r="M68" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" t="s">
+        <v>26</v>
+      </c>
+      <c r="O68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" t="s">
+        <v>300</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>301</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s">
+        <v>147</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>302</v>
+      </c>
+      <c r="K69" t="s">
+        <v>82</v>
+      </c>
+      <c r="L69" t="s">
+        <v>303</v>
+      </c>
+      <c r="M69" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>304</v>
+      </c>
+      <c r="B70" t="s">
         <v>305</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
         <v>306</v>
       </c>
-      <c r="C62" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" t="s">
-        <v>305</v>
-      </c>
-      <c r="I62" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" t="s">
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>304</v>
+      </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
         <v>307</v>
       </c>
-      <c r="K62" t="s">
-        <v>299</v>
-      </c>
-      <c r="L62" t="s">
+      <c r="K70" t="s">
+        <v>82</v>
+      </c>
+      <c r="L70" t="s">
         <v>308</v>
       </c>
-      <c r="M62" t="s">
-        <v>25</v>
-      </c>
-      <c r="N62" t="s">
-        <v>56</v>
-      </c>
-      <c r="O62" t="s">
+      <c r="M70" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" t="s">
+        <v>309</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>310</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s">
+        <v>214</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>311</v>
+      </c>
+      <c r="K71" t="s">
+        <v>82</v>
+      </c>
+      <c r="L71" t="s">
+        <v>178</v>
+      </c>
+      <c r="M71" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" t="s">
+        <v>312</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>313</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>303</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>314</v>
+      </c>
+      <c r="K72" t="s">
+        <v>82</v>
+      </c>
+      <c r="L72" t="s">
+        <v>315</v>
+      </c>
+      <c r="M72" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" t="s">
+        <v>316</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>317</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>218</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" t="s">
+        <v>318</v>
+      </c>
+      <c r="K73" t="s">
+        <v>82</v>
+      </c>
+      <c r="L73" t="s">
+        <v>304</v>
+      </c>
+      <c r="M73" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" t="s">
+        <v>319</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
+        <v>320</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>172</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>321</v>
+      </c>
+      <c r="K74" t="s">
+        <v>82</v>
+      </c>
+      <c r="L74" t="s">
+        <v>322</v>
+      </c>
+      <c r="M74" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" t="s">
+        <v>323</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
+        <v>324</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s">
+        <v>158</v>
+      </c>
+      <c r="I75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" t="s">
+        <v>325</v>
+      </c>
+      <c r="K75" t="s">
+        <v>82</v>
+      </c>
+      <c r="L75" t="s">
+        <v>326</v>
+      </c>
+      <c r="M75" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" t="s">
+        <v>26</v>
+      </c>
+      <c r="O75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" t="s">
+        <v>327</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>328</v>
+      </c>
+      <c r="G76" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" t="s">
+        <v>118</v>
+      </c>
+      <c r="I76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>329</v>
+      </c>
+      <c r="K76" t="s">
+        <v>82</v>
+      </c>
+      <c r="L76" t="s">
+        <v>73</v>
+      </c>
+      <c r="M76" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" t="s">
+        <v>330</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>331</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>265</v>
+      </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" t="s">
+        <v>332</v>
+      </c>
+      <c r="K77" t="s">
+        <v>82</v>
+      </c>
+      <c r="L77" t="s">
+        <v>333</v>
+      </c>
+      <c r="M77" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" t="s">
+        <v>26</v>
+      </c>
+      <c r="O77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>322</v>
+      </c>
+      <c r="B78" t="s">
+        <v>334</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" t="s">
+        <v>335</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>322</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>336</v>
+      </c>
+      <c r="K78" t="s">
+        <v>82</v>
+      </c>
+      <c r="L78" t="s">
+        <v>337</v>
+      </c>
+      <c r="M78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" t="s">
+        <v>26</v>
+      </c>
+      <c r="O78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" t="s">
+        <v>338</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>339</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s">
+        <v>223</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>340</v>
+      </c>
+      <c r="K79" t="s">
+        <v>82</v>
+      </c>
+      <c r="L79" t="s">
+        <v>143</v>
+      </c>
+      <c r="M79" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" t="s">
+        <v>26</v>
+      </c>
+      <c r="O79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>273</v>
+      </c>
+      <c r="B80" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" t="s">
+        <v>342</v>
+      </c>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s">
+        <v>273</v>
+      </c>
+      <c r="I80" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" t="s">
+        <v>343</v>
+      </c>
+      <c r="K80" t="s">
+        <v>82</v>
+      </c>
+      <c r="L80" t="s">
+        <v>344</v>
+      </c>
+      <c r="M80" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" t="s">
+        <v>26</v>
+      </c>
+      <c r="O80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>333</v>
+      </c>
+      <c r="B81" t="s">
+        <v>345</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s">
+        <v>346</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s">
+        <v>333</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" t="s">
+        <v>347</v>
+      </c>
+      <c r="K81" t="s">
+        <v>82</v>
+      </c>
+      <c r="L81" t="s">
+        <v>348</v>
+      </c>
+      <c r="M81" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" t="s">
+        <v>26</v>
+      </c>
+      <c r="O81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" t="s">
+        <v>349</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" t="s">
+        <v>350</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>228</v>
+      </c>
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>351</v>
+      </c>
+      <c r="K82" t="s">
+        <v>82</v>
+      </c>
+      <c r="L82" t="s">
+        <v>101</v>
+      </c>
+      <c r="M82" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" t="s">
+        <v>26</v>
+      </c>
+      <c r="O82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>352</v>
+      </c>
+      <c r="B83" t="s">
+        <v>353</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>354</v>
+      </c>
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s">
+        <v>352</v>
+      </c>
+      <c r="I83" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>355</v>
+      </c>
+      <c r="K83" t="s">
+        <v>356</v>
+      </c>
+      <c r="L83" t="s">
+        <v>53</v>
+      </c>
+      <c r="M83" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>357</v>
+      </c>
+      <c r="B84" t="s">
+        <v>358</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>359</v>
+      </c>
+      <c r="G84" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" t="s">
+        <v>357</v>
+      </c>
+      <c r="I84" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>360</v>
+      </c>
+      <c r="K84" t="s">
+        <v>356</v>
+      </c>
+      <c r="L84" t="s">
+        <v>361</v>
+      </c>
+      <c r="M84" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1">
-    <sortState ref="A2:O62">
-      <sortCondition ref="L1"/>
+  <autoFilter ref="A1:O84">
+    <sortState ref="A2:O84">
+      <sortCondition ref="L1:L84"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/gameLists.xlsx
+++ b/gameLists.xlsx
@@ -1699,7 +1699,7 @@
         <v>StandAloneMines</v>
       </c>
       <c r="I28" t="str">
-        <v>False</v>
+        <v>True</v>
       </c>
       <c r="J28" t="str">
         <v>GEMINI_StandAloneMines</v>
@@ -1887,7 +1887,7 @@
         <v>StandAloneHiloNE</v>
       </c>
       <c r="I32" t="str">
-        <v>True</v>
+        <v>False</v>
       </c>
       <c r="J32" t="str">
         <v>GEMINI_StandAloneHiloNE</v>

--- a/gameLists.xlsx
+++ b/gameLists.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1143,19 +1143,19 @@
     <t>86</t>
   </si>
   <si>
+    <t>127</t>
+  </si>
+  <si>
     <t>大過年3</t>
   </si>
   <si>
-    <t>127</t>
-  </si>
-  <si>
     <t>RSG_127</t>
   </si>
   <si>
+    <t>126</t>
+  </si>
+  <si>
     <t>逛夜市3</t>
-  </si>
-  <si>
-    <t>126</t>
   </si>
   <si>
     <t>RSG_126</t>
@@ -1544,14 +1544,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1602,10 +1599,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1623,7 +1620,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -1649,10 +1646,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1670,7 +1667,7 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -5650,6 +5647,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:O1" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/gameLists.xlsx
+++ b/gameLists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9810" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -858,13 +858,14 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
+    <col min="11" max="11" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2426,6 +2427,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:O1" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/gameLists.xlsx
+++ b/gameLists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9810" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="380">
   <si>
     <t>gameId</t>
   </si>
@@ -69,409 +69,1099 @@
     <t>code</t>
   </si>
   <si>
-    <t>StandAlonePlinkoGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淘金彈跳樂 </t>
+    <t>127</t>
+  </si>
+  <si>
+    <t>大過年3</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>1002270060</t>
+  </si>
+  <si>
+    <t>RSG</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>RSG_127</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>逛夜市3</t>
+  </si>
+  <si>
+    <t>RSG_126</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>麻將發了2</t>
+  </si>
+  <si>
+    <t>RSG_118</t>
+  </si>
+  <si>
+    <t>1, 2, 4</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>狗來富</t>
+  </si>
+  <si>
+    <t>RSG_122</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>侏羅紀寶藏</t>
+  </si>
+  <si>
+    <t>RSG_123</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>麻將發了</t>
+  </si>
+  <si>
+    <t>1002270082</t>
+  </si>
+  <si>
+    <t>RSG_117</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>超級王牌2</t>
+  </si>
+  <si>
+    <t>1002270000</t>
+  </si>
+  <si>
+    <t>RSG_128</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>迦羅寶石4</t>
+  </si>
+  <si>
+    <t>RSG_125</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>雷神之錘</t>
+  </si>
+  <si>
+    <t>1002270078</t>
+  </si>
+  <si>
+    <t>RSG_112</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>聚寶財神</t>
+  </si>
+  <si>
+    <t>1002270083</t>
+  </si>
+  <si>
+    <t>RSG_114</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>五龍爭霸</t>
+  </si>
+  <si>
+    <t>1002270019</t>
+  </si>
+  <si>
+    <t>RSG_19</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>法老王</t>
+  </si>
+  <si>
+    <t>1002270006</t>
+  </si>
+  <si>
+    <t>RSG_6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>法老王 II</t>
+  </si>
+  <si>
+    <t>1002270073</t>
+  </si>
+  <si>
+    <t>RSG_82</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>戰神呂布</t>
+  </si>
+  <si>
+    <t>1002270085</t>
+  </si>
+  <si>
+    <t>RSG_121</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>羅馬競技場</t>
+  </si>
+  <si>
+    <t>1002270063</t>
+  </si>
+  <si>
+    <t>RSG_100</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>有請財神</t>
+  </si>
+  <si>
+    <t>1002270087</t>
+  </si>
+  <si>
+    <t>RSG_120</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>黃金摔角手</t>
+  </si>
+  <si>
+    <t>1002270086</t>
+  </si>
+  <si>
+    <t>RSG_75</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>跳跳獅</t>
+  </si>
+  <si>
+    <t>1002270049</t>
+  </si>
+  <si>
+    <t>RSG_50</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>行運一條龍</t>
+  </si>
+  <si>
+    <t>1002270028</t>
+  </si>
+  <si>
+    <t>RSG_28</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>開心農場</t>
+  </si>
+  <si>
+    <t>1002270079</t>
+  </si>
+  <si>
+    <t>RSG_111</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>幸運水果</t>
+  </si>
+  <si>
+    <t>1002270008</t>
+  </si>
+  <si>
+    <t>RSG_8</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>皇家777</t>
+  </si>
+  <si>
+    <t>1002270003</t>
+  </si>
+  <si>
+    <t>RSG_3</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>龍王2</t>
+  </si>
+  <si>
+    <t>1002270074</t>
+  </si>
+  <si>
+    <t>RSG_81</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>七十二變</t>
+  </si>
+  <si>
+    <t>1002270021</t>
+  </si>
+  <si>
+    <t>RSG_21</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>龍王</t>
+  </si>
+  <si>
+    <t>1002270033</t>
+  </si>
+  <si>
+    <t>RSG_30</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+  </si>
+  <si>
+    <t>1002270007</t>
+  </si>
+  <si>
+    <t>RSG_7</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>美狄亞</t>
+  </si>
+  <si>
+    <t>1002270069</t>
+  </si>
+  <si>
+    <t>RSG_52</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>福娃發發</t>
+  </si>
+  <si>
+    <t>1002270043</t>
+  </si>
+  <si>
+    <t>RSG_40</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>提金派對</t>
+  </si>
+  <si>
+    <t>1002270030</t>
+  </si>
+  <si>
+    <t>RSG_31</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>秘林熊貓</t>
+  </si>
+  <si>
+    <t>1002270059</t>
+  </si>
+  <si>
+    <t>RSG_59</t>
+  </si>
+  <si>
+    <t>泰有錢</t>
+  </si>
+  <si>
+    <t>1002270002</t>
+  </si>
+  <si>
+    <t>RSG_1</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>皇家7777</t>
+  </si>
+  <si>
+    <t>1002270075</t>
+  </si>
+  <si>
+    <t>RSG_78</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>荒野水牛</t>
+  </si>
+  <si>
+    <t>1002270024</t>
+  </si>
+  <si>
+    <t>RSG_24</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>瘋狂博士</t>
+  </si>
+  <si>
+    <t>1002270017</t>
+  </si>
+  <si>
+    <t>RSG_17</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>龍行天下</t>
+  </si>
+  <si>
+    <t>1002270062</t>
+  </si>
+  <si>
+    <t>RSG_90</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
+  </si>
+  <si>
+    <t>1002270070</t>
+  </si>
+  <si>
+    <t>RSG_51</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>能量外星人</t>
+  </si>
+  <si>
+    <t>1002270061</t>
+  </si>
+  <si>
+    <t>RSG_2001</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>竹林熊貓</t>
+  </si>
+  <si>
+    <t>1002270025</t>
+  </si>
+  <si>
+    <t>RSG_25</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>秦皇傳說</t>
+  </si>
+  <si>
+    <t>1002270081</t>
+  </si>
+  <si>
+    <t>RSG_113</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>鼠來寶</t>
+  </si>
+  <si>
+    <t>1002270076</t>
+  </si>
+  <si>
+    <t>RSG_70</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>1002270040</t>
+  </si>
+  <si>
+    <t>RSG_34</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>財神到</t>
+  </si>
+  <si>
+    <t>1002270027</t>
+  </si>
+  <si>
+    <t>RSG_27</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>武媚娘</t>
+  </si>
+  <si>
+    <t>1002270048</t>
+  </si>
+  <si>
+    <t>RSG_39</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
-    <t>GEMINI</t>
-  </si>
-  <si>
-    <t>2000000021</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAlonePlinkoGR</t>
-  </si>
-  <si>
-    <t>1, 4, 6</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>StandAloneMinesCL</t>
-  </si>
-  <si>
-    <t>經典踩地雷</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneMinesCL</t>
-  </si>
-  <si>
-    <t>1, 6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>MagicBingo</t>
-  </si>
-  <si>
-    <t>魔幻賓果</t>
-  </si>
-  <si>
-    <t>GEMINI_MagicBingo</t>
-  </si>
-  <si>
-    <t>StandAloneMines</t>
-  </si>
-  <si>
-    <t>深水炸彈</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneMines</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>OdinBingo</t>
-  </si>
-  <si>
-    <t>奧丁賓果</t>
-  </si>
-  <si>
-    <t>GEMINI_OdinBingo</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>蒸氣龐克</t>
-  </si>
-  <si>
-    <t>GEMINI_Steampunk</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>StandAloneHiloCL</t>
-  </si>
-  <si>
-    <t>經典猜大小</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneHiloCL</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>StandAlonePlinkoCL</t>
-  </si>
-  <si>
-    <t>經典彈跳樂</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAlonePlinkoCL</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>CaveBingo</t>
-  </si>
-  <si>
-    <t>洞穴賓果</t>
-  </si>
-  <si>
-    <t>GEMINI_CaveBingo</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>StandAloneHilo</t>
-  </si>
-  <si>
-    <t>猜大小</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneHilo</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>CaribbeanBingo</t>
-  </si>
-  <si>
-    <t>加勒比海賓果</t>
-  </si>
-  <si>
-    <t>GEMINI_CaribbeanBingo</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>StandAloneLimboCL</t>
-  </si>
-  <si>
-    <t>經典猜臨界</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneLimboCL</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>LostRuins</t>
-  </si>
-  <si>
-    <t>失落遺跡</t>
-  </si>
-  <si>
-    <t>GEMINI_LostRuins</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>StandAlonePlinko</t>
-  </si>
-  <si>
-    <t>金剛彈珠</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAlonePlinko</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>StandAloneMinesNE</t>
-  </si>
-  <si>
-    <t>霓虹踩地雷</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneMinesNE</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>StandAloneLimbo</t>
-  </si>
-  <si>
-    <t>魔法邊緣</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneLimbo</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>StandAloneWheel</t>
-  </si>
-  <si>
-    <t>法老轉盤</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneWheel</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>MultiPlayerCrash</t>
-  </si>
-  <si>
-    <t>驚爆隕石</t>
-  </si>
-  <si>
-    <t>GEMINI_MultiPlayerCrash</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>StandAloneDice</t>
-  </si>
-  <si>
-    <t>幸運骰子</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneDice</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>StandAloneDiamonds</t>
-  </si>
-  <si>
-    <t>鑽石大亨</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneDiamonds</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>StandAloneHiloNE</t>
-  </si>
-  <si>
-    <t>霓虹猜大小</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneHiloNE</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>StandAloneKeno</t>
-  </si>
-  <si>
-    <t>萬聖基諾</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneKeno</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>BonusBingo</t>
-  </si>
-  <si>
-    <t>爆獎賓果</t>
-  </si>
-  <si>
-    <t>GEMINI_BonusBingo</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>MultiPlayerCrashCL</t>
-  </si>
-  <si>
-    <t>經典爆破震</t>
-  </si>
-  <si>
-    <t>GEMINI_MultiPlayerCrashCL</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>MultiPlayerAviator</t>
-  </si>
-  <si>
-    <t>飛行員</t>
-  </si>
-  <si>
-    <t>GEMINI_MultiPlayerAviator</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>MultiPlayerMultiHilo</t>
-  </si>
-  <si>
-    <t>多人猜大小</t>
-  </si>
-  <si>
-    <t>GEMINI_MultiPlayerMultiHilo</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>MultiPlayerCrashNE</t>
-  </si>
-  <si>
-    <t>霓虹爆破震</t>
-  </si>
-  <si>
-    <t>GEMINI_MultiPlayerCrashNE</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>StandAlonePlinkoNE</t>
-  </si>
-  <si>
-    <t>霓虹彈跳樂</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAlonePlinkoNE</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>StandAloneLimboNE</t>
-  </si>
-  <si>
-    <t>霓虹猜臨界</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneLimboNE</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>StandAloneMinesGR</t>
-  </si>
-  <si>
-    <t>淘金踩地雷</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneMinesGR</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>StandAloneHiloGR</t>
-  </si>
-  <si>
-    <t>淘金猜大小</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneHiloGR</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>StandAloneLimboGR</t>
-  </si>
-  <si>
-    <t>淘金猜臨界</t>
-  </si>
-  <si>
-    <t>GEMINI_StandAloneLimboGR</t>
-  </si>
-  <si>
-    <t>32</t>
+    <t>大力水手</t>
+  </si>
+  <si>
+    <t>1002270016</t>
+  </si>
+  <si>
+    <t>RSG_16</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>慾望城市</t>
+  </si>
+  <si>
+    <t>1002270004</t>
+  </si>
+  <si>
+    <t>RSG_4</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>嗨起來</t>
+  </si>
+  <si>
+    <t>1002270057</t>
+  </si>
+  <si>
+    <t>RSG_55</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>烈焰轉輪</t>
+  </si>
+  <si>
+    <t>1002270032</t>
+  </si>
+  <si>
+    <t>RSG_15</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>金鷄報喜</t>
+  </si>
+  <si>
+    <t>1002270005</t>
+  </si>
+  <si>
+    <t>RSG_5</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>動物叢林</t>
+  </si>
+  <si>
+    <t>1002270010</t>
+  </si>
+  <si>
+    <t>RSG_10</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>魔法石</t>
+  </si>
+  <si>
+    <t>1002270001</t>
+  </si>
+  <si>
+    <t>RSG_2</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>魔龍傳奇</t>
+  </si>
+  <si>
+    <t>1002270084</t>
+  </si>
+  <si>
+    <t>RSG_119</t>
+  </si>
+  <si>
+    <t>七起來</t>
+  </si>
+  <si>
+    <t>1002270050</t>
+  </si>
+  <si>
+    <t>RSG_44</t>
+  </si>
+  <si>
+    <t>泰山</t>
+  </si>
+  <si>
+    <t>1002270044</t>
+  </si>
+  <si>
+    <t>RSG_41</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>野蠻遊戲</t>
+  </si>
+  <si>
+    <t>1002270012</t>
+  </si>
+  <si>
+    <t>RSG_12</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>西部牛仔</t>
+  </si>
+  <si>
+    <t>1002270058</t>
+  </si>
+  <si>
+    <t>RSG_56</t>
+  </si>
+  <si>
+    <t>泰好運</t>
+  </si>
+  <si>
+    <t>1002270026</t>
+  </si>
+  <si>
+    <t>RSG_26</t>
+  </si>
+  <si>
+    <t>農場夜驚魂</t>
+  </si>
+  <si>
+    <t>1002270037</t>
+  </si>
+  <si>
+    <t>RSG_38</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>金豬爆吉</t>
+  </si>
+  <si>
+    <t>1002270046</t>
+  </si>
+  <si>
+    <t>RSG_43</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>幸運拉霸</t>
+  </si>
+  <si>
+    <t>1002270034</t>
+  </si>
+  <si>
+    <t>RSG_33</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>太極</t>
+  </si>
+  <si>
+    <t>1002270065</t>
+  </si>
+  <si>
+    <t>RSG_65</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>永不停止</t>
+  </si>
+  <si>
+    <t>1002270018</t>
+  </si>
+  <si>
+    <t>RSG_18</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>甜蜜糖果</t>
+  </si>
+  <si>
+    <t>1002270014</t>
+  </si>
+  <si>
+    <t>RSG_14</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>黃金之書</t>
+  </si>
+  <si>
+    <t>1002270067</t>
+  </si>
+  <si>
+    <t>RSG_61</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>霓虹圓</t>
+  </si>
+  <si>
+    <t>1002270055</t>
+  </si>
+  <si>
+    <t>RSG_53</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>家犬先生</t>
+  </si>
+  <si>
+    <t>1002270042</t>
+  </si>
+  <si>
+    <t>RSG_36</t>
+  </si>
+  <si>
+    <t>虎克船長</t>
+  </si>
+  <si>
+    <t>1002270011</t>
+  </si>
+  <si>
+    <t>RSG_11</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>金色幸運草</t>
+  </si>
+  <si>
+    <t>1002270071</t>
+  </si>
+  <si>
+    <t>RSG_66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>海神</t>
+  </si>
+  <si>
+    <t>1002270054</t>
+  </si>
+  <si>
+    <t>RSG_49</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>墨西哥辣椒</t>
+  </si>
+  <si>
+    <t>1002270045</t>
+  </si>
+  <si>
+    <t>RSG_42</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>迪斯可之夜</t>
+  </si>
+  <si>
+    <t>1002270036</t>
+  </si>
+  <si>
+    <t>RSG_37</t>
+  </si>
+  <si>
+    <t>HUSA</t>
+  </si>
+  <si>
+    <t>1002270029</t>
+  </si>
+  <si>
+    <t>RSG_29</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>潑水節</t>
+  </si>
+  <si>
+    <t>1002270080</t>
+  </si>
+  <si>
+    <t>RSG_72</t>
+  </si>
+  <si>
+    <t>女忍者</t>
+  </si>
+  <si>
+    <t>1002270052</t>
+  </si>
+  <si>
+    <t>RSG_45</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>巫師商店黃金版</t>
+  </si>
+  <si>
+    <t>1002270077</t>
+  </si>
+  <si>
+    <t>RSG_68</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>忍者</t>
+  </si>
+  <si>
+    <t>1002270053</t>
+  </si>
+  <si>
+    <t>RSG_46</t>
+  </si>
+  <si>
+    <t>巫師商店</t>
+  </si>
+  <si>
+    <t>1002270041</t>
+  </si>
+  <si>
+    <t>RSG_35</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>礦工哥布林</t>
+  </si>
+  <si>
+    <t>1002270031</t>
+  </si>
+  <si>
+    <t>RSG_32</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>人魚傳說</t>
+  </si>
+  <si>
+    <t>1002270023</t>
+  </si>
+  <si>
+    <t>RSG_23</t>
+  </si>
+  <si>
+    <t>賣火柴的小女孩</t>
+  </si>
+  <si>
+    <t>1002270066</t>
+  </si>
+  <si>
+    <t>RSG_58</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>精靈射手</t>
+  </si>
+  <si>
+    <t>1002270068</t>
+  </si>
+  <si>
+    <t>RSG_73</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>果凍27</t>
+  </si>
+  <si>
+    <t>1002270051</t>
+  </si>
+  <si>
+    <t>RSG_47</t>
+  </si>
+  <si>
+    <t>嘻哈金剛</t>
+  </si>
+  <si>
+    <t>1002270072</t>
+  </si>
+  <si>
+    <t>RSG_60</t>
+  </si>
+  <si>
+    <t>小熊王國</t>
+  </si>
+  <si>
+    <t>1002270064</t>
+  </si>
+  <si>
+    <t>RSG_76</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>暴怒棕熊</t>
+  </si>
+  <si>
+    <t>1002270056</t>
+  </si>
+  <si>
+    <t>RSG_48</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>八爪天下海霸王</t>
+  </si>
+  <si>
+    <t>1002270047</t>
+  </si>
+  <si>
+    <t>RSG_3001</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>福娃捕魚</t>
+  </si>
+  <si>
+    <t>RSG_3002</t>
+  </si>
+  <si>
+    <t>86</t>
   </si>
 </sst>
 </file>
@@ -855,17 +1545,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="10" max="10" width="24.25" customWidth="1"/>
-    <col min="11" max="11" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -935,39 +1625,39 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -982,31 +1672,31 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1029,39 +1719,39 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1076,39 +1766,39 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1123,86 +1813,86 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1214,89 +1904,89 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1308,42 +1998,42 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -1355,42 +2045,42 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1402,42 +2092,42 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1449,42 +2139,42 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1496,42 +2186,42 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1543,42 +2233,42 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -1590,42 +2280,42 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1637,42 +2327,42 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -1684,42 +2374,42 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -1731,42 +2421,42 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1778,42 +2468,42 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="M20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1825,42 +2515,42 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1872,42 +2562,42 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="M22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1919,42 +2609,42 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -1966,42 +2656,42 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="M24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -2013,42 +2703,42 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -2060,42 +2750,42 @@
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -2107,42 +2797,42 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -2154,42 +2844,42 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="M28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -2201,42 +2891,42 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H29" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="M29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -2248,42 +2938,42 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="M30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -2295,42 +2985,42 @@
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -2342,42 +3032,42 @@
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -2389,45 +3079,2582 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>165</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>168</v>
+      </c>
+      <c r="K34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>172</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>173</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>178</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>183</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>184</v>
+      </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>187</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>188</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>191</v>
+      </c>
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>192</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>193</v>
+      </c>
+      <c r="I40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>196</v>
+      </c>
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>197</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>201</v>
+      </c>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>145</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>209</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
+        <v>197</v>
+      </c>
+      <c r="I44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>212</v>
+      </c>
+      <c r="K44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" t="s">
+        <v>213</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>215</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>216</v>
+      </c>
+      <c r="K45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" t="s">
+        <v>217</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>220</v>
+      </c>
+      <c r="K46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" t="s">
+        <v>221</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>222</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>225</v>
+      </c>
+      <c r="K47" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" t="s">
+        <v>226</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" t="s">
+        <v>26</v>
+      </c>
+      <c r="O47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>228</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>229</v>
+      </c>
+      <c r="K48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" t="s">
+        <v>230</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>233</v>
+      </c>
+      <c r="K49" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" t="s">
+        <v>234</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>236</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>237</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>238</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>240</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>241</v>
+      </c>
+      <c r="K51" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" t="s">
+        <v>100</v>
+      </c>
+      <c r="M51" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" t="s">
+        <v>26</v>
+      </c>
+      <c r="O51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>244</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>242</v>
+      </c>
+      <c r="I52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K52" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" t="s">
+        <v>179</v>
+      </c>
+      <c r="M52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>217</v>
+      </c>
+      <c r="I53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>248</v>
+      </c>
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" t="s">
+        <v>140</v>
+      </c>
+      <c r="M53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>250</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>205</v>
+      </c>
+      <c r="I54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>251</v>
+      </c>
+      <c r="K54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" t="s">
+        <v>252</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" t="s">
+        <v>26</v>
+      </c>
+      <c r="O54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>254</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>255</v>
+      </c>
+      <c r="K55" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" t="s">
+        <v>256</v>
+      </c>
+      <c r="M55" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" t="s">
+        <v>26</v>
+      </c>
+      <c r="O55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>259</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s">
+        <v>257</v>
+      </c>
+      <c r="I56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>260</v>
+      </c>
+      <c r="K56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" t="s">
+        <v>222</v>
+      </c>
+      <c r="M56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" t="s">
+        <v>26</v>
+      </c>
+      <c r="O56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>262</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
+        <v>139</v>
+      </c>
+      <c r="I57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>263</v>
+      </c>
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" t="s">
+        <v>257</v>
+      </c>
+      <c r="M57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" t="s">
+        <v>26</v>
+      </c>
+      <c r="O57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>265</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s">
+        <v>192</v>
+      </c>
+      <c r="I58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>266</v>
+      </c>
+      <c r="K58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" t="s">
+        <v>267</v>
+      </c>
+      <c r="M58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" t="s">
+        <v>26</v>
+      </c>
+      <c r="O58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>269</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>270</v>
+      </c>
+      <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" t="s">
+        <v>271</v>
+      </c>
+      <c r="M59" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" t="s">
+        <v>26</v>
+      </c>
+      <c r="O59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>273</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>169</v>
+      </c>
+      <c r="I60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>274</v>
+      </c>
+      <c r="K60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" t="s">
+        <v>154</v>
+      </c>
+      <c r="M60" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>275</v>
+      </c>
+      <c r="B61" t="s">
+        <v>276</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>277</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>275</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>278</v>
+      </c>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s">
+        <v>279</v>
+      </c>
+      <c r="M61" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" t="s">
+        <v>280</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>281</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s">
+        <v>104</v>
+      </c>
+      <c r="I62" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>282</v>
+      </c>
+      <c r="K62" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" t="s">
+        <v>283</v>
+      </c>
+      <c r="M62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>285</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s">
+        <v>84</v>
+      </c>
+      <c r="I63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" t="s">
+        <v>286</v>
+      </c>
+      <c r="K63" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" t="s">
+        <v>287</v>
+      </c>
+      <c r="M63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" t="s">
+        <v>288</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>289</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>283</v>
+      </c>
+      <c r="I64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" t="s">
+        <v>290</v>
+      </c>
+      <c r="K64" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" t="s">
+        <v>291</v>
+      </c>
+      <c r="M64" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>293</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s">
+        <v>252</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>294</v>
+      </c>
+      <c r="K65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" t="s">
+        <v>295</v>
+      </c>
+      <c r="M65" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65" t="s">
+        <v>26</v>
+      </c>
+      <c r="O65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>296</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>297</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s">
+        <v>183</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>298</v>
+      </c>
+      <c r="K66" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" t="s">
+        <v>275</v>
+      </c>
+      <c r="M66" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" t="s">
+        <v>26</v>
+      </c>
+      <c r="O66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>299</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>300</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
+        <v>301</v>
+      </c>
+      <c r="K67" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" t="s">
+        <v>302</v>
+      </c>
+      <c r="M67" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>302</v>
+      </c>
+      <c r="B68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>304</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" t="s">
+        <v>302</v>
+      </c>
+      <c r="I68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>305</v>
+      </c>
+      <c r="K68" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" t="s">
+        <v>306</v>
+      </c>
+      <c r="M68" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" t="s">
+        <v>26</v>
+      </c>
+      <c r="O68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>238</v>
+      </c>
+      <c r="B69" t="s">
+        <v>307</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>308</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s">
+        <v>238</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>309</v>
+      </c>
+      <c r="K69" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" t="s">
+        <v>310</v>
+      </c>
+      <c r="M69" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" t="s">
+        <v>311</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
+        <v>312</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>209</v>
+      </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>313</v>
+      </c>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" t="s">
+        <v>314</v>
+      </c>
+      <c r="M70" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>316</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s">
+        <v>188</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>317</v>
+      </c>
+      <c r="K71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" t="s">
+        <v>198</v>
+      </c>
+      <c r="M71" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s">
+        <v>318</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>319</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>153</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>320</v>
+      </c>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" t="s">
+        <v>321</v>
+      </c>
+      <c r="M72" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>324</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>322</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" t="s">
+        <v>325</v>
+      </c>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" t="s">
+        <v>322</v>
+      </c>
+      <c r="M73" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" t="s">
+        <v>326</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
+        <v>327</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>221</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>328</v>
+      </c>
+      <c r="K74" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" t="s">
+        <v>329</v>
+      </c>
+      <c r="M74" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>310</v>
+      </c>
+      <c r="B75" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
+        <v>331</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s">
+        <v>310</v>
+      </c>
+      <c r="I75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" t="s">
+        <v>332</v>
+      </c>
+      <c r="K75" t="s">
+        <v>24</v>
+      </c>
+      <c r="L75" t="s">
+        <v>333</v>
+      </c>
+      <c r="M75" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" t="s">
+        <v>26</v>
+      </c>
+      <c r="O75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" t="s">
+        <v>334</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>335</v>
+      </c>
+      <c r="G76" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" t="s">
+        <v>226</v>
+      </c>
+      <c r="I76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>336</v>
+      </c>
+      <c r="K76" t="s">
+        <v>24</v>
+      </c>
+      <c r="L76" t="s">
+        <v>95</v>
+      </c>
+      <c r="M76" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>338</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" t="s">
+        <v>339</v>
+      </c>
+      <c r="K77" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77" t="s">
+        <v>340</v>
+      </c>
+      <c r="M77" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" t="s">
+        <v>26</v>
+      </c>
+      <c r="O77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" t="s">
+        <v>341</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" t="s">
+        <v>342</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>165</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>343</v>
+      </c>
+      <c r="K78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78" t="s">
+        <v>344</v>
+      </c>
+      <c r="M78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" t="s">
+        <v>26</v>
+      </c>
+      <c r="O78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" t="s">
+        <v>345</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>346</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s">
+        <v>126</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>347</v>
+      </c>
+      <c r="K79" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" t="s">
+        <v>161</v>
+      </c>
+      <c r="M79" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" t="s">
+        <v>26</v>
+      </c>
+      <c r="O79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" t="s">
+        <v>348</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" t="s">
+        <v>349</v>
+      </c>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s">
+        <v>271</v>
+      </c>
+      <c r="I80" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" t="s">
+        <v>350</v>
+      </c>
+      <c r="K80" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" t="s">
+        <v>351</v>
+      </c>
+      <c r="M80" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" t="s">
+        <v>26</v>
+      </c>
+      <c r="O80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>329</v>
+      </c>
+      <c r="B81" t="s">
+        <v>352</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s">
+        <v>353</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s">
+        <v>329</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" t="s">
+        <v>354</v>
+      </c>
+      <c r="K81" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" t="s">
+        <v>355</v>
+      </c>
+      <c r="M81" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" t="s">
+        <v>26</v>
+      </c>
+      <c r="O81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>230</v>
+      </c>
+      <c r="B82" t="s">
+        <v>356</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" t="s">
+        <v>357</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>230</v>
+      </c>
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>358</v>
+      </c>
+      <c r="K82" t="s">
+        <v>24</v>
+      </c>
+      <c r="L82" t="s">
+        <v>122</v>
+      </c>
+      <c r="M82" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" t="s">
+        <v>26</v>
+      </c>
+      <c r="O82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>279</v>
+      </c>
+      <c r="B83" t="s">
+        <v>359</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>360</v>
+      </c>
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s">
+        <v>279</v>
+      </c>
+      <c r="I83" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>361</v>
+      </c>
+      <c r="K83" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" t="s">
+        <v>75</v>
+      </c>
+      <c r="M83" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>340</v>
+      </c>
+      <c r="B84" t="s">
+        <v>362</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>363</v>
+      </c>
+      <c r="G84" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" t="s">
+        <v>340</v>
+      </c>
+      <c r="I84" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>364</v>
+      </c>
+      <c r="K84" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" t="s">
+        <v>365</v>
+      </c>
+      <c r="M84" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" t="s">
+        <v>366</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" t="s">
+        <v>367</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s">
+        <v>234</v>
+      </c>
+      <c r="I85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>368</v>
+      </c>
+      <c r="K85" t="s">
+        <v>24</v>
+      </c>
+      <c r="L85" t="s">
+        <v>369</v>
+      </c>
+      <c r="M85" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" t="s">
+        <v>26</v>
+      </c>
+      <c r="O85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>370</v>
+      </c>
+      <c r="B86" t="s">
+        <v>371</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" t="s">
+        <v>372</v>
+      </c>
+      <c r="G86" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" t="s">
+        <v>370</v>
+      </c>
+      <c r="I86" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" t="s">
+        <v>373</v>
+      </c>
+      <c r="K86" t="s">
+        <v>374</v>
+      </c>
+      <c r="L86" t="s">
+        <v>375</v>
+      </c>
+      <c r="M86" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" t="s">
+        <v>26</v>
+      </c>
+      <c r="O86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>376</v>
+      </c>
+      <c r="B87" t="s">
+        <v>377</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" t="s">
         <v>20</v>
       </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s">
-        <v>146</v>
-      </c>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
-        <v>148</v>
-      </c>
-      <c r="K33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" t="s">
-        <v>149</v>
-      </c>
-      <c r="M33" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" t="s">
-        <v>25</v>
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" t="s">
+        <v>376</v>
+      </c>
+      <c r="I87" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" t="s">
+        <v>378</v>
+      </c>
+      <c r="K87" t="s">
+        <v>374</v>
+      </c>
+      <c r="L87" t="s">
+        <v>379</v>
+      </c>
+      <c r="M87" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" t="s">
+        <v>26</v>
+      </c>
+      <c r="O87" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O1">
-    <sortState ref="A2:O33">
+    <sortState ref="A2:O87">
       <sortCondition ref="L1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:O1" numberStoredAsText="1"/>
   </ignoredErrors>
